--- a/data/valuations/ai-summaries/PANW_ai.xlsx
+++ b/data/valuations/ai-summaries/PANW_ai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\projects\stock_val_streamlit\data\valuations\ai-summaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED595013-229A-4915-B999-750EF8D7FEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FAFA12-DF3A-42EE-864C-C8FC08C167AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stock_val" sheetId="1" r:id="rId1"/>
@@ -47,20 +47,20 @@
     <t>PANW</t>
   </si>
   <si>
-    <t xml:space="preserve">### 1. Company snapshot
-PANW (Palo Alto Networks) is a global leader in cybersecurity, offering network, cloud, and security operations solutions to protect digital assets.
-### 2. Pros
-PANW benefits from strong cybersecurity demand, a robust product portfolio, and a growing subscription revenue model, enhancing predictability. It maintains a solid net cash positive balance sheet, offering financial flexibility.
-### 3. Cons
-PANW faces intense competition and its high valuation reflects significant growth expectations, making it sensitive to market shifts. Stock-based compensation also contributes to share dilution.
-### 4. Scenario Suggestions
-- **Expected Revenue CAGR (5y):** Mid 0.25 (25%) for strong demand, good 0.30 (30%) for continued leadership.
-- **Expected Operating Margin:** Mid 0.22 (22%) with scaling, good 0.28 (28%) for enhanced efficiency.
-- **Expected Dilution (5yr):** Mid 0.05 (5%) from compensation, good 0.03 (3%) with efficient practices.
-- **Longterm Net Debt:** Mid 0 and good 0, as PANW is net cash positive.
-- **Interest Rate on Debt:** Mid 0.06 (6%) at current rates, good 0.04 (4%) for lower market rates.
-- **Tax Rate:** Mid 0.22 (22%) for corporate taxes, good 0.20 (20%) for stable policy.
-- **Long Term Earning Multiple:** Mid 35 for its growth, good 45 for sustained high performance.
+    <t xml:space="preserve">### 1. Company snapshot:
+Palo Alto Networks (PANW) is a leading global cybersecurity company. It provides advanced security solutions, including next-generation firewalls, cloud security, and security operations platforms, helping enterprises prevent cyberattacks across various environments.
+### 2. Pros:
+PANW benefits from a robust and growing cybersecurity market, maintaining a strong competitive position with a comprehensive product suite. The company exhibits high gross margins (73%) and has a healthy net cash position of $1.93 million, indicating financial stability.
+### 3. Cons:
+Despite strong revenue, PANW faces significant operating expenses, impacting its current operating profit margin (19.6%). The cybersecurity market is highly competitive, and PANW's valuation often reflects high growth expectations, posing potential risk if growth slows.
+### 4. Scenario Suggestions:
+*   **Expected Revenue CAGR (5y):** I suggest **mid** 25% and **good** 30% due to strong, ongoing demand in cybersecurity.
+*   **Expected Operating Margin:** I suggest **mid** 25% and **good** 30%, anticipating scaling efficiencies improving from current levels.
+*   **Expected Dilution (5y):** I suggest **mid** 6% and **good** 4%, factoring in typical tech company stock compensation but also strong performance reducing need for more.
+*   **Longterm Debt (lt_net_debt):** I suggest **mid** 0 and **good** 0, as PANW is net cash positive and likely to remain so.
+*   **Interest Rate on Debt (interest_rate_debt):** I suggest **mid** 5% and **good** 4%, reflecting favorable terms for a financially stable company with low debt.
+*   **Tax rate (tax_rate):** I suggest **mid** 20% and **good** 18%, considering standard corporate rates with potential for tax credits.
+*   **Long Term Earning Multiple (lt_earning_multiple):** I suggest **mid** 35 and **good** 45, reflecting PANW's continued high-growth potential in tech.
 </t>
   </si>
   <si>
@@ -118,10 +118,10 @@
     <t>E Operated Margin</t>
   </si>
   <si>
-    <t xml:space="preserve">E Revenue </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E EBITDA </t>
+    <t>E Revenue</t>
+  </si>
+  <si>
+    <t>E EBITDA</t>
   </si>
   <si>
     <t>E Dilution (5yr)</t>
@@ -663,8 +663,8 @@
   </sheetPr>
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:K40"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="8">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="C23" s="8">
-        <v>0.28000000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
@@ -996,11 +996,11 @@
       </c>
       <c r="B25" s="5">
         <f>B24*B23</f>
-        <v>6811352.5390625</v>
+        <v>7740173.33984375</v>
       </c>
       <c r="C25" s="5">
         <f>C24*C23</f>
-        <v>10547156.882080004</v>
+        <v>11300525.230800003</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
@@ -1014,10 +1014,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="8">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="C26" s="8">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
@@ -1032,11 +1032,11 @@
       </c>
       <c r="B27" s="5">
         <f>B5*(1+B26)</f>
-        <v>718181.82870000007</v>
+        <v>725021.65564000001</v>
       </c>
       <c r="C27" s="5">
         <f>B5*(1+C26)</f>
-        <v>704502.17482000007</v>
+        <v>711342.00176000001</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
@@ -1075,7 +1075,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="8">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="C30" s="8">
         <v>0.04</v>
@@ -1092,10 +1092,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="8">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="C31" s="8">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
@@ -1110,11 +1110,11 @@
       </c>
       <c r="B32" s="5">
         <f>(B25-B29*B30)*(1-B31)</f>
-        <v>5312854.98046875</v>
+        <v>6192138.671875</v>
       </c>
       <c r="C32" s="5">
         <f>(C25-C29*C30)*(1-C31)</f>
-        <v>8437725.505664004</v>
+        <v>9266430.6892560031</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
@@ -1137,11 +1137,11 @@
       </c>
       <c r="B34" s="5">
         <f>B32/B27</f>
-        <v>7.3976460669934934</v>
+        <v>8.5406258195267277</v>
       </c>
       <c r="C34" s="5">
         <f>C32/C27</f>
-        <v>11.976862254285926</v>
+        <v>13.026688521595844</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
@@ -1173,11 +1173,11 @@
       </c>
       <c r="B36" s="5">
         <f>B34*B35</f>
-        <v>258.91761234477229</v>
+        <v>298.92190368343546</v>
       </c>
       <c r="C36" s="5">
         <f>C34*C35</f>
-        <v>538.95880144286673</v>
+        <v>586.20098347181295</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
@@ -1209,11 +1209,11 @@
       </c>
       <c r="B38" s="13">
         <f>B36/((B37+1)^5)</f>
-        <v>202.86872423166596</v>
+        <v>234.21313326653612</v>
       </c>
       <c r="C38" s="13">
         <f>C36/((C37+1)^5)</f>
-        <v>422.28832357896471</v>
+        <v>459.30380935971004</v>
       </c>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="B40" s="14">
         <f>((C38*B39-B4)/(C38*B39-B38))</f>
-        <v>1.0811172943739362</v>
+        <v>1.2183259392147983</v>
       </c>
       <c r="C40" s="15"/>
       <c r="F40" s="17"/>
